--- a/Database/Excel/Product groups/Встраиваемая техника/Микроволновые печи.xlsx
+++ b/Database/Excel/Product groups/Встраиваемая техника/Микроволновые печи.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\SiteWork_2\Database\Excel\Product groups\Встраиваемая техника\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12210"/>
   </bookViews>
@@ -10,14 +15,14 @@
     <sheet name="Микроволновые печи ВСТР" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Микроволновые печи ВСТР'!$B$1:$O$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Микроволновые печи ВСТР'!$A$1:$S$62</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="170">
   <si>
     <t>Название</t>
   </si>
@@ -509,13 +514,31 @@
   </si>
   <si>
     <t>Микроволновая печь De Dietrich DME1329X</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>боковове</t>
+  </si>
+  <si>
+    <t>нержавеющая сталь</t>
+  </si>
+  <si>
+    <t>сверху вниз</t>
+  </si>
+  <si>
+    <t>эмаль</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,24 +1236,24 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1258,74 +1281,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1342,7 +1297,7 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="008CFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1626,21 +1581,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1649,21 +1607,21 @@
     <col min="6" max="6" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +1680,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1698,9 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I2" s="8" t="s">
         <v>59</v>
       </c>
@@ -1765,11 +1725,17 @@
       <c r="P2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="Q2" s="12">
+        <v>6</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1787,7 +1753,9 @@
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I3" s="3" t="s">
         <v>151</v>
       </c>
@@ -1812,11 +1780,17 @@
       <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="Q3" s="6">
+        <v>4</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1834,9 +1808,11 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="J4" s="3">
         <v>1000</v>
@@ -1859,11 +1835,17 @@
       <c r="P4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="Q4" s="6">
+        <v>5</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1881,7 +1863,9 @@
       <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>151</v>
       </c>
@@ -1906,11 +1890,17 @@
       <c r="P5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="Q5" s="6">
+        <v>10</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1928,7 +1918,9 @@
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>142</v>
       </c>
@@ -1953,11 +1945,17 @@
       <c r="P6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="Q6" s="6">
+        <v>10</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1975,7 +1973,9 @@
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I7" s="3" t="s">
         <v>145</v>
       </c>
@@ -2000,11 +2000,17 @@
       <c r="P7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="Q7" s="6">
+        <v>10</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -2022,7 +2028,9 @@
       <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2047,11 +2055,17 @@
       <c r="P8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="Q8" s="6">
+        <v>10</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2069,7 +2083,9 @@
       <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>142</v>
       </c>
@@ -2094,11 +2110,17 @@
       <c r="P9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="Q9" s="6">
+        <v>10</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2138,9 @@
       <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>59</v>
       </c>
@@ -2141,11 +2165,17 @@
       <c r="P10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="Q10" s="6">
+        <v>10</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -2163,7 +2193,9 @@
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>145</v>
       </c>
@@ -2188,11 +2220,17 @@
       <c r="P11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="Q11" s="6">
+        <v>10</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -2210,7 +2248,9 @@
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2235,11 +2275,17 @@
       <c r="P12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="Q12" s="6">
+        <v>10</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -2257,7 +2303,9 @@
       <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I13" s="3" t="s">
         <v>59</v>
       </c>
@@ -2282,11 +2330,17 @@
       <c r="P13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="Q13" s="6">
+        <v>10</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -2304,7 +2358,9 @@
       <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2327,11 +2383,17 @@
       <c r="P14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="Q14" s="6">
+        <v>10</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -2349,7 +2411,9 @@
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I15" s="3" t="s">
         <v>142</v>
       </c>
@@ -2372,11 +2436,17 @@
       <c r="P15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="Q15" s="6">
+        <v>10</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2394,7 +2464,9 @@
       <c r="G16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I16" s="3" t="s">
         <v>59</v>
       </c>
@@ -2417,11 +2489,17 @@
       <c r="P16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="Q16" s="6">
+        <v>10</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2439,7 +2517,9 @@
       <c r="G17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
@@ -2464,11 +2544,17 @@
       <c r="P17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="Q17" s="6">
+        <v>6</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -2486,7 +2572,9 @@
       <c r="G18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I18" s="3" t="s">
         <v>59</v>
       </c>
@@ -2511,11 +2599,17 @@
       <c r="P18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="Q18" s="6">
+        <v>6</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -2533,7 +2627,9 @@
       <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I19" s="3" t="s">
         <v>59</v>
       </c>
@@ -2558,11 +2654,17 @@
       <c r="P19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="Q19" s="6">
+        <v>6</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
@@ -2580,7 +2682,9 @@
       <c r="G20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I20" s="3" t="s">
         <v>10</v>
       </c>
@@ -2603,11 +2707,17 @@
       <c r="P20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="Q20" s="6">
+        <v>6</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
@@ -2625,7 +2735,9 @@
       <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I21" s="3" t="s">
         <v>59</v>
       </c>
@@ -2648,11 +2760,17 @@
       <c r="P21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="Q21" s="6">
+        <v>6</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -2670,7 +2788,9 @@
       <c r="G22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I22" s="3" t="s">
         <v>59</v>
       </c>
@@ -2695,11 +2815,17 @@
       <c r="P22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="Q22" s="12">
+        <v>6</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -2717,7 +2843,9 @@
       <c r="G23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I23" s="3" t="s">
         <v>10</v>
       </c>
@@ -2742,11 +2870,17 @@
       <c r="P23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="Q23" s="12">
+        <v>6</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -2764,7 +2898,9 @@
       <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I24" s="3" t="s">
         <v>152</v>
       </c>
@@ -2789,11 +2925,17 @@
       <c r="P24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="Q24" s="6">
+        <v>5</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -2811,7 +2953,9 @@
       <c r="G25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I25" s="3" t="s">
         <v>152</v>
       </c>
@@ -2836,11 +2980,17 @@
       <c r="P25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="Q25" s="6">
+        <v>6</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -2858,7 +3008,9 @@
       <c r="G26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I26" s="3" t="s">
         <v>142</v>
       </c>
@@ -2883,11 +3035,17 @@
       <c r="P26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="Q26" s="6">
+        <v>4</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -2905,7 +3063,9 @@
       <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I27" s="3" t="s">
         <v>10</v>
       </c>
@@ -2930,11 +3090,17 @@
       <c r="P27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="Q27" s="6">
+        <v>5</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -2952,7 +3118,9 @@
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I28" s="3" t="s">
         <v>152</v>
       </c>
@@ -2977,11 +3145,17 @@
       <c r="P28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="Q28" s="6">
+        <v>4</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -2999,7 +3173,9 @@
       <c r="G29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I29" s="3" t="s">
         <v>152</v>
       </c>
@@ -3024,11 +3200,17 @@
       <c r="P29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="Q29" s="6">
+        <v>5</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
@@ -3046,7 +3228,9 @@
       <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I30" s="3" t="s">
         <v>59</v>
       </c>
@@ -3069,11 +3253,17 @@
       <c r="P30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="Q30" s="6">
+        <v>6</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -3091,7 +3281,9 @@
       <c r="G31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3116,11 +3308,17 @@
       <c r="P31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="Q31" s="6">
+        <v>4</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
@@ -3138,7 +3336,9 @@
       <c r="G32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I32" s="3" t="s">
         <v>59</v>
       </c>
@@ -3163,11 +3363,17 @@
       <c r="P32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="Q32" s="6">
+        <v>4</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>81</v>
       </c>
@@ -3185,7 +3391,9 @@
       <c r="G33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I33" s="3" t="s">
         <v>59</v>
       </c>
@@ -3210,11 +3418,17 @@
       <c r="P33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="Q33" s="6">
+        <v>4</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>83</v>
       </c>
@@ -3232,7 +3446,9 @@
       <c r="G34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I34" s="3" t="s">
         <v>59</v>
       </c>
@@ -3257,11 +3473,17 @@
       <c r="P34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="Q34" s="6">
+        <v>4</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
@@ -3279,7 +3501,9 @@
       <c r="G35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I35" s="3" t="s">
         <v>59</v>
       </c>
@@ -3304,11 +3528,17 @@
       <c r="P35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="Q35" s="12">
+        <v>6</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>87</v>
       </c>
@@ -3326,7 +3556,9 @@
       <c r="G36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I36" s="3" t="s">
         <v>59</v>
       </c>
@@ -3349,11 +3581,17 @@
       <c r="P36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="Q36" s="6">
+        <v>5</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
@@ -3371,7 +3609,9 @@
       <c r="G37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I37" s="3" t="s">
         <v>10</v>
       </c>
@@ -3394,11 +3634,17 @@
       <c r="P37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="Q37" s="6">
+        <v>5</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
@@ -3416,7 +3662,9 @@
       <c r="G38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I38" s="3" t="s">
         <v>59</v>
       </c>
@@ -3439,11 +3687,17 @@
       <c r="P38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="Q38" s="6">
+        <v>5</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>94</v>
       </c>
@@ -3461,7 +3715,9 @@
       <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I39" s="3" t="s">
         <v>59</v>
       </c>
@@ -3486,11 +3742,17 @@
       <c r="P39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="Q39" s="6">
+        <v>5</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>97</v>
       </c>
@@ -3508,7 +3770,9 @@
       <c r="G40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I40" s="3" t="s">
         <v>59</v>
       </c>
@@ -3531,11 +3795,17 @@
       <c r="P40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="Q40" s="6">
+        <v>5</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>99</v>
       </c>
@@ -3553,7 +3823,9 @@
       <c r="G41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I41" s="3" t="s">
         <v>59</v>
       </c>
@@ -3576,11 +3848,17 @@
       <c r="P41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="Q41" s="6">
+        <v>5</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>101</v>
       </c>
@@ -3598,7 +3876,9 @@
       <c r="G42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
@@ -3623,11 +3903,17 @@
       <c r="P42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="Q42" s="6">
+        <v>5</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>103</v>
       </c>
@@ -3645,7 +3931,9 @@
       <c r="G43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I43" s="3" t="s">
         <v>59</v>
       </c>
@@ -3670,11 +3958,17 @@
       <c r="P43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="Q43" s="6">
+        <v>5</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>105</v>
       </c>
@@ -3692,7 +3986,9 @@
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I44" s="3" t="s">
         <v>59</v>
       </c>
@@ -3717,11 +4013,17 @@
       <c r="P44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="Q44" s="6">
+        <v>5</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>107</v>
       </c>
@@ -3739,7 +4041,9 @@
       <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
@@ -3764,11 +4068,17 @@
       <c r="P45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="Q45" s="6">
+        <v>5</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>109</v>
       </c>
@@ -3786,7 +4096,9 @@
       <c r="G46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I46" s="3" t="s">
         <v>59</v>
       </c>
@@ -3811,11 +4123,17 @@
       <c r="P46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="Q46" s="6">
+        <v>5</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>111</v>
       </c>
@@ -3833,7 +4151,9 @@
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="3"/>
+      <c r="H47" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
       </c>
@@ -3858,11 +4178,17 @@
       <c r="P47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="Q47" s="6">
+        <v>5</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>113</v>
       </c>
@@ -3880,7 +4206,9 @@
       <c r="G48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I48" s="3" t="s">
         <v>59</v>
       </c>
@@ -3905,11 +4233,17 @@
       <c r="P48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="Q48" s="6">
+        <v>5</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
@@ -3927,7 +4261,9 @@
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I49" s="3" t="s">
         <v>59</v>
       </c>
@@ -3952,11 +4288,17 @@
       <c r="P49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="Q49" s="6">
+        <v>5</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>117</v>
       </c>
@@ -3974,7 +4316,9 @@
       <c r="G50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I50" s="3" t="s">
         <v>59</v>
       </c>
@@ -3999,11 +4343,17 @@
       <c r="P50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="Q50" s="6">
+        <v>5</v>
+      </c>
+      <c r="R50" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>119</v>
       </c>
@@ -4021,7 +4371,9 @@
       <c r="G51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I51" s="3" t="s">
         <v>142</v>
       </c>
@@ -4046,11 +4398,17 @@
       <c r="P51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="Q51" s="6">
+        <v>4</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>121</v>
       </c>
@@ -4068,7 +4426,9 @@
       <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I52" s="3" t="s">
         <v>59</v>
       </c>
@@ -4093,11 +4453,17 @@
       <c r="P52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="Q52" s="6">
+        <v>5</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>123</v>
       </c>
@@ -4115,7 +4481,9 @@
       <c r="G53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I53" s="3" t="s">
         <v>10</v>
       </c>
@@ -4140,11 +4508,17 @@
       <c r="P53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="Q53" s="6">
+        <v>4</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>125</v>
       </c>
@@ -4162,7 +4536,9 @@
       <c r="G54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I54" s="3" t="s">
         <v>59</v>
       </c>
@@ -4187,11 +4563,17 @@
       <c r="P54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="Q54" s="6">
+        <v>7</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>127</v>
       </c>
@@ -4209,7 +4591,9 @@
       <c r="G55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I55" s="3" t="s">
         <v>59</v>
       </c>
@@ -4232,11 +4616,17 @@
       <c r="P55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="Q55" s="6">
+        <v>6</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>129</v>
       </c>
@@ -4254,7 +4644,9 @@
       <c r="G56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I56" s="3" t="s">
         <v>10</v>
       </c>
@@ -4279,11 +4671,17 @@
       <c r="P56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="Q56" s="6">
+        <v>7</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>131</v>
       </c>
@@ -4301,7 +4699,9 @@
       <c r="G57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I57" s="3" t="s">
         <v>59</v>
       </c>
@@ -4324,11 +4724,17 @@
       <c r="P57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="Q57" s="6">
+        <v>7</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>133</v>
       </c>
@@ -4346,7 +4752,9 @@
       <c r="G58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I58" s="3" t="s">
         <v>142</v>
       </c>
@@ -4371,11 +4779,17 @@
       <c r="P58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="Q58" s="6">
+        <v>7</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>135</v>
       </c>
@@ -4393,7 +4807,9 @@
       <c r="G59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I59" s="3" t="s">
         <v>59</v>
       </c>
@@ -4416,11 +4832,17 @@
       <c r="P59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="Q59" s="6">
+        <v>7</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>137</v>
       </c>
@@ -4438,7 +4860,9 @@
       <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I60" s="3" t="s">
         <v>59</v>
       </c>
@@ -4461,11 +4885,17 @@
       <c r="P60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="Q60" s="6">
+        <v>6</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>139</v>
       </c>
@@ -4483,7 +4913,9 @@
       <c r="G61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I61" s="3" t="s">
         <v>59</v>
       </c>
@@ -4508,11 +4940,17 @@
       <c r="P61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="Q61" s="6">
+        <v>6</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>141</v>
       </c>
@@ -4530,7 +4968,9 @@
       <c r="G62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I62" s="3" t="s">
         <v>145</v>
       </c>
@@ -4555,9 +4995,15 @@
       <c r="P62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
+      <c r="Q62" s="6">
+        <v>7</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
